--- a/data/crudos/insc_carreras_2026.xlsx
+++ b/data/crudos/insc_carreras_2026.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>Año Académico</t>
   </si>
@@ -59,30 +59,36 @@
     <t>Modalidad</t>
   </si>
   <si>
+    <t>BACHI, MAIRA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>DNI 36323525</t>
+  </si>
+  <si>
+    <t>2021-V1</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>01/04/2026</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Con Título Secundario</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
     <t>FERNANDEZ, ROCIO ABIGAIL</t>
   </si>
   <si>
     <t>DNI 48807202</t>
   </si>
   <si>
-    <t>2021-V1</t>
-  </si>
-  <si>
-    <t>01/10/2025</t>
-  </si>
-  <si>
-    <t>01/04/2026</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>Con Título Secundario</t>
-  </si>
-  <si>
-    <t>Presencial</t>
-  </si>
-  <si>
     <t>NIEVA, MARCOS</t>
   </si>
   <si>
@@ -101,6 +107,18 @@
     <t>DNI 48639486</t>
   </si>
   <si>
+    <t>Retamozo, Nadia</t>
+  </si>
+  <si>
+    <t>DNI 34576075</t>
+  </si>
+  <si>
+    <t>Scatassa, Bruno</t>
+  </si>
+  <si>
+    <t>DNI 44511731</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cantidad de filas: </t>
   </si>
   <si>
@@ -116,6 +134,12 @@
     <t>Aceptado</t>
   </si>
   <si>
+    <t>BARRERA TITO, PAUL WILLIAM</t>
+  </si>
+  <si>
+    <t>DNI 46695130</t>
+  </si>
+  <si>
     <t>BASTAZO, DAIANA AYELEN</t>
   </si>
   <si>
@@ -134,18 +158,36 @@
     <t>DNI 37987557</t>
   </si>
   <si>
+    <t>BRAVO, MAIA FLORENCIA</t>
+  </si>
+  <si>
+    <t>DNI 43094818</t>
+  </si>
+  <si>
     <t>BURGAT CARADONNA, EZEQUIEL</t>
   </si>
   <si>
     <t>DNI 48241477</t>
   </si>
   <si>
+    <t>CARRIZO, SANTIAGO AGUSTIN</t>
+  </si>
+  <si>
+    <t>DNI 40126665</t>
+  </si>
+  <si>
     <t>CARUSO, SANTIAGO</t>
   </si>
   <si>
     <t>DNI 48161555</t>
   </si>
   <si>
+    <t>CAVALLARO, CONSTANTINO VITO</t>
+  </si>
+  <si>
+    <t>DNI 48115749</t>
+  </si>
+  <si>
     <t>DÍAZ, MELANIE MILAGROS</t>
   </si>
   <si>
@@ -170,6 +212,12 @@
     <t>DNI 46027745</t>
   </si>
   <si>
+    <t>FERNANDEZ, CANDELA CELESTE</t>
+  </si>
+  <si>
+    <t>DNI 44626514</t>
+  </si>
+  <si>
     <t>FERNANDEZ SALCH, ROMAN</t>
   </si>
   <si>
@@ -194,12 +242,24 @@
     <t>DNI 48677855</t>
   </si>
   <si>
+    <t>GERES, BIANCA TAMARA</t>
+  </si>
+  <si>
+    <t>DNI 48510323</t>
+  </si>
+  <si>
     <t>GHIGLIERI, LUKA MATEO</t>
   </si>
   <si>
     <t>DNI 46737801</t>
   </si>
   <si>
+    <t>GODOY, CLARA DANIELA</t>
+  </si>
+  <si>
+    <t>DNI 47881730</t>
+  </si>
+  <si>
     <t>GODOY OSIANI, JULIAN MANUEL</t>
   </si>
   <si>
@@ -230,6 +290,12 @@
     <t>DNI 48796378</t>
   </si>
   <si>
+    <t>LEMOS GONZÁLEZ, BRENDA CRISTAL</t>
+  </si>
+  <si>
+    <t>DNI 41075924</t>
+  </si>
+  <si>
     <t>LIZONDO ORTIGOZA, JONATHAN ARIEL</t>
   </si>
   <si>
@@ -254,6 +320,12 @@
     <t>DNI 47066576</t>
   </si>
   <si>
+    <t>MARTINEZ MOREL, LUZ MARINA</t>
+  </si>
+  <si>
+    <t>DNI 47869709</t>
+  </si>
+  <si>
     <t>MATILLA, SOFIA</t>
   </si>
   <si>
@@ -266,6 +338,12 @@
     <t>DNI 48521116</t>
   </si>
   <si>
+    <t>MONTEVERDE, JULIETA</t>
+  </si>
+  <si>
+    <t>DNI 46346107</t>
+  </si>
+  <si>
     <t>MORINIGO, LUJAN ANTONELA</t>
   </si>
   <si>
@@ -326,12 +404,24 @@
     <t>DNI 47871987</t>
   </si>
   <si>
+    <t>PRADO, MARTÍN GABRIEL</t>
+  </si>
+  <si>
+    <t>DNI 47572317</t>
+  </si>
+  <si>
     <t>PRIETO, SANTIAGO</t>
   </si>
   <si>
     <t>DNI 48240193</t>
   </si>
   <si>
+    <t>RODRIGUEZ, MAXIMO AGUSTIN</t>
+  </si>
+  <si>
+    <t>DNI 47805235</t>
+  </si>
+  <si>
     <t>ROMERO, NAHUEL EZEQUIEL</t>
   </si>
   <si>
@@ -350,6 +440,12 @@
     <t>DNI 48461926</t>
   </si>
   <si>
+    <t>SCHLAIN, TALIA NAOMI</t>
+  </si>
+  <si>
+    <t>DNI 44162493</t>
+  </si>
+  <si>
     <t>SENESI SCHIAVONE, MORENA</t>
   </si>
   <si>
@@ -374,6 +470,12 @@
     <t>DNI 46737943</t>
   </si>
   <si>
+    <t>VILLAFAÑEZ, MARÍA JULIETA</t>
+  </si>
+  <si>
+    <t>DNI 46990398</t>
+  </si>
+  <si>
     <t>VILLALBA, MARIA AGUSTINA</t>
   </si>
   <si>
@@ -399,6 +501,12 @@
   </si>
   <si>
     <t>DNI 38458463</t>
+  </si>
+  <si>
+    <t>GUEVARA, MARTIN</t>
+  </si>
+  <si>
+    <t>DNI 44498874</t>
   </si>
   <si>
     <t>JAIME, KEVIN</t>
@@ -844,10 +952,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I141" sqref="I141"/>
+      <selection activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,157 +1167,157 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <f>ROWS(A6:I9)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" customHeight="1" ht="20">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <f>ROWS(A6:I12)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customHeight="1" ht="20">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2013</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2013</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2013</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" s="6">
         <v>2013</v>
       </c>
@@ -1223,7 +1331,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -1234,10 +1342,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6">
         <v>2013</v>
@@ -1252,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>20</v>
@@ -1263,10 +1371,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>2013</v>
@@ -1281,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>20</v>
@@ -1292,10 +1400,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="6">
         <v>2013</v>
@@ -1310,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>20</v>
@@ -1321,10 +1429,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6">
         <v>2013</v>
@@ -1339,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>20</v>
@@ -1350,10 +1458,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6">
         <v>2013</v>
@@ -1368,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>20</v>
@@ -1379,10 +1487,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6">
         <v>2013</v>
@@ -1397,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>20</v>
@@ -1408,10 +1516,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C23" s="6">
         <v>2013</v>
@@ -1426,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>20</v>
@@ -1455,7 +1563,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>20</v>
@@ -1484,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>20</v>
@@ -1513,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>20</v>
@@ -1542,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>20</v>
@@ -1571,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>20</v>
@@ -1600,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>20</v>
@@ -1629,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
@@ -1658,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>20</v>
@@ -1669,10 +1777,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
@@ -1687,7 +1795,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>20</v>
@@ -1698,10 +1806,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6">
         <v>2013</v>
@@ -1716,7 +1824,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>20</v>
@@ -1727,10 +1835,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="6">
         <v>2013</v>
@@ -1745,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>20</v>
@@ -1756,10 +1864,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="6">
         <v>2013</v>
@@ -1774,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>20</v>
@@ -1785,10 +1893,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="6">
         <v>2013</v>
@@ -1803,7 +1911,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>20</v>
@@ -1814,10 +1922,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6">
         <v>2013</v>
@@ -1832,7 +1940,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>20</v>
@@ -1843,10 +1951,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="6">
         <v>2013</v>
@@ -1861,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>20</v>
@@ -1872,10 +1980,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6">
         <v>2013</v>
@@ -1890,7 +1998,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>20</v>
@@ -1901,10 +2009,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" s="6">
         <v>2013</v>
@@ -1919,7 +2027,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>20</v>
@@ -1930,10 +2038,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C41" s="6">
         <v>2013</v>
@@ -1948,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>20</v>
@@ -1977,7 +2085,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>20</v>
@@ -1988,10 +2096,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
@@ -2006,7 +2114,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>20</v>
@@ -2017,10 +2125,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6">
         <v>2013</v>
@@ -2035,7 +2143,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>20</v>
@@ -2046,10 +2154,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45" s="6">
         <v>2013</v>
@@ -2064,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>20</v>
@@ -2075,10 +2183,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="6">
         <v>2013</v>
@@ -2093,7 +2201,7 @@
         <v>18</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>20</v>
@@ -2104,10 +2212,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" s="6">
         <v>2013</v>
@@ -2122,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>20</v>
@@ -2133,10 +2241,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" s="6">
         <v>2013</v>
@@ -2151,7 +2259,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>20</v>
@@ -2162,10 +2270,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
@@ -2180,7 +2288,7 @@
         <v>18</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>20</v>
@@ -2191,10 +2299,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C50" s="6">
         <v>2013</v>
@@ -2209,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>20</v>
@@ -2220,10 +2328,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6">
         <v>2013</v>
@@ -2238,7 +2346,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>20</v>
@@ -2249,10 +2357,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C52" s="6">
         <v>2013</v>
@@ -2267,7 +2375,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>20</v>
@@ -2278,10 +2386,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C53" s="6">
         <v>2013</v>
@@ -2296,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>20</v>
@@ -2307,10 +2415,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C54" s="6">
         <v>2013</v>
@@ -2325,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>20</v>
@@ -2336,10 +2444,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C55" s="6">
         <v>2013</v>
@@ -2354,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>20</v>
@@ -2365,10 +2473,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56" s="6">
         <v>2013</v>
@@ -2383,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>20</v>
@@ -2394,10 +2502,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C57" s="6">
         <v>2013</v>
@@ -2412,7 +2520,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>20</v>
@@ -2441,7 +2549,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>20</v>
@@ -2470,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>20</v>
@@ -2499,7 +2607,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>20</v>
@@ -2528,7 +2636,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>20</v>
@@ -2557,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>20</v>
@@ -2567,75 +2675,104 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7">
-        <f>ROWS(A13:I62)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" customHeight="1" ht="20">
-      <c r="A64" s="4" t="s">
+      <c r="B63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="B64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>13</v>
+      <c r="A65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D65" s="6">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C66" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
@@ -2644,7 +2781,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>20</v>
@@ -2655,16 +2792,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C67" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D67" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
@@ -2673,7 +2810,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>20</v>
@@ -2684,16 +2821,16 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C68" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -2702,7 +2839,7 @@
         <v>18</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>20</v>
@@ -2713,16 +2850,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C69" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
@@ -2731,7 +2868,7 @@
         <v>18</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>20</v>
@@ -2742,16 +2879,16 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C70" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>17</v>
@@ -2760,7 +2897,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>20</v>
@@ -2770,72 +2907,101 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7">
-        <f>ROWS(A66:I70)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" customHeight="1" ht="20">
-      <c r="A72" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="A71" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>13</v>
+      <c r="A73" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="6" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="C74" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D74" s="6">
         <v>2</v>
@@ -2847,22 +3013,24 @@
         <v>18</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I74" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="6" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C75" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D75" s="6">
         <v>2</v>
@@ -2874,7 +3042,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>20</v>
@@ -2885,13 +3053,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="6" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="C76" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D76" s="6">
         <v>2</v>
@@ -2903,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>20</v>
@@ -2914,13 +3082,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="6" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C77" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
@@ -2932,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>20</v>
@@ -2943,13 +3111,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="6" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="C78" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D78" s="6">
         <v>2</v>
@@ -2961,7 +3129,7 @@
         <v>18</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>20</v>
@@ -2972,13 +3140,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="6" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="C79" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D79" s="6">
         <v>2</v>
@@ -2990,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>20</v>
@@ -3001,13 +3169,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="6" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C80" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D80" s="6">
         <v>2</v>
@@ -3019,7 +3187,7 @@
         <v>18</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>20</v>
@@ -3030,13 +3198,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="6" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="C81" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D81" s="6">
         <v>2</v>
@@ -3048,7 +3216,7 @@
         <v>18</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>20</v>
@@ -3059,13 +3227,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="6" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="C82" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D82" s="6">
         <v>2</v>
@@ -3077,7 +3245,7 @@
         <v>18</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>20</v>
@@ -3087,104 +3255,75 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D83" s="6">
-        <v>2</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D84" s="6">
-        <v>2</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7">
+        <f>ROWS(A16:I82)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" customHeight="1" ht="20">
+      <c r="A84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D85" s="6">
-        <v>2</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>21</v>
+      <c r="A85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="6" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C86" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D86" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>17</v>
@@ -3193,7 +3332,7 @@
         <v>18</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>20</v>
@@ -3204,16 +3343,16 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="6" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C87" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D87" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>17</v>
@@ -3222,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>20</v>
@@ -3233,16 +3372,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="6" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="C88" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D88" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
@@ -3251,7 +3390,7 @@
         <v>18</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>20</v>
@@ -3262,16 +3401,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="6" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="C89" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D89" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
@@ -3280,7 +3419,7 @@
         <v>18</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>20</v>
@@ -3291,16 +3430,16 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="6" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="C90" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D90" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>17</v>
@@ -3309,7 +3448,7 @@
         <v>18</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>20</v>
@@ -3320,16 +3459,16 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="6" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="C91" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D91" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>17</v>
@@ -3338,7 +3477,7 @@
         <v>18</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>20</v>
@@ -3348,98 +3487,69 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D92" s="6">
-        <v>2</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D93" s="6">
-        <v>2</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A92" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7">
+        <f>ROWS(A86:I91)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" customHeight="1" ht="20">
+      <c r="A93" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D94" s="6">
-        <v>2</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>21</v>
+      <c r="A94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="6" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C95" s="6">
         <v>2015</v>
@@ -3456,19 +3566,17 @@
       <c r="G95" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="H95" s="6"/>
       <c r="I95" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="6" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C96" s="6">
         <v>2015</v>
@@ -3494,10 +3602,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="6" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C97" s="6">
         <v>2015</v>
@@ -3523,10 +3631,10 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="6" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C98" s="6">
         <v>2015</v>
@@ -3552,10 +3660,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="6" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C99" s="6">
         <v>2015</v>
@@ -3581,10 +3689,10 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="6" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C100" s="6">
         <v>2015</v>
@@ -3610,10 +3718,10 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="6" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C101" s="6">
         <v>2015</v>
@@ -3639,10 +3747,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="6" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C102" s="6">
         <v>2015</v>
@@ -3668,10 +3776,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="6" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C103" s="6">
         <v>2015</v>
@@ -3697,10 +3805,10 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="6" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C104" s="6">
         <v>2015</v>
@@ -3726,10 +3834,10 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="6" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C105" s="6">
         <v>2015</v>
@@ -3755,10 +3863,10 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="6" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C106" s="6">
         <v>2015</v>
@@ -3783,69 +3891,98 @@
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7">
-        <f>ROWS(A74:I106)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" customHeight="1" ht="20">
-      <c r="A108" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="A107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D107" s="6">
+        <v>2</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>13</v>
+      <c r="A109" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D109" s="6">
+        <v>2</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="6" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C110" s="6">
         <v>2015</v>
@@ -3871,10 +4008,10 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C111" s="6">
         <v>2015</v>
@@ -3900,10 +4037,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="6" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C112" s="6">
         <v>2015</v>
@@ -3929,10 +4066,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="6" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C113" s="6">
         <v>2015</v>
@@ -3958,10 +4095,10 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C114" s="6">
         <v>2015</v>
@@ -3987,10 +4124,10 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C115" s="6">
         <v>2015</v>
@@ -4016,10 +4153,10 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C116" s="6">
         <v>2015</v>
@@ -4045,10 +4182,10 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C117" s="6">
         <v>2015</v>
@@ -4074,10 +4211,10 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C118" s="6">
         <v>2015</v>
@@ -4102,75 +4239,104 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7">
-        <f>ROWS(A110:I118)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" customHeight="1" ht="20">
-      <c r="A120" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
+      <c r="A119" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D120" s="6">
+        <v>2</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>13</v>
+      <c r="A121" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>141</v>
+        <v>120</v>
+      </c>
+      <c r="C122" s="6">
+        <v>2015</v>
       </c>
       <c r="D122" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>17</v>
@@ -4189,75 +4355,104 @@
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7">
-        <f>ROWS(A122:I122)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" customHeight="1" ht="20">
-      <c r="A124" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+      <c r="A123" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D123" s="6">
+        <v>2</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D124" s="6">
+        <v>2</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>13</v>
+      <c r="A125" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D125" s="6">
+        <v>2</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="C126" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D126" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>17</v>
@@ -4277,16 +4472,16 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C127" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D127" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>17</v>
@@ -4306,16 +4501,16 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="C128" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D128" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>17</v>
@@ -4335,16 +4530,16 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="6" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C129" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D129" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>17</v>
@@ -4364,16 +4559,16 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="6" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C130" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D130" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>17</v>
@@ -4392,72 +4587,101 @@
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7">
-        <f>ROWS(A126:I130)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" customHeight="1" ht="20">
-      <c r="A132" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
+      <c r="A131" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D131" s="6">
+        <v>2</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D132" s="6">
+        <v>2</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>13</v>
+      <c r="A133" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D133" s="6">
+        <v>2</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="6" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C134" s="6">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="D134" s="6">
         <v>2</v>
@@ -4480,166 +4704,1094 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D135" s="6">
+        <v>2</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7">
+        <f>ROWS(A95:I135)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" customHeight="1" ht="20">
+      <c r="A137" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D140" s="6">
+        <v>2</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D141" s="6">
+        <v>2</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D142" s="6">
+        <v>2</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D143" s="6">
+        <v>2</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D144" s="6">
+        <v>2</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D145" s="6">
+        <v>2</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D146" s="6">
+        <v>2</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D147" s="6">
+        <v>2</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D148" s="6">
+        <v>2</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D149" s="6">
+        <v>2</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7">
+        <f>ROWS(A139:I149)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" customHeight="1" ht="20">
+      <c r="A151" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" s="6">
+        <v>1</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7">
+        <f>ROWS(A153:I154)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" customHeight="1" ht="20">
+      <c r="A156" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C159" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D159" s="6">
+        <v>1</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C161" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="C163" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C135" s="6">
+      <c r="B164" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C164" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D164" s="6">
         <v>1</v>
       </c>
-      <c r="D135" s="6">
-        <v>2</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" s="6">
+      <c r="E164" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C165" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D165" s="6">
         <v>1</v>
       </c>
-      <c r="D136" s="6">
-        <v>2</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C137" s="6">
+      <c r="E165" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7">
+        <f>ROWS(A158:I165)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" customHeight="1" ht="20">
+      <c r="A167" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C169" s="6">
         <v>1</v>
       </c>
-      <c r="D137" s="6">
-        <v>2</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="6">
+      <c r="D169" s="6">
+        <v>2</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C170" s="6">
         <v>1</v>
       </c>
-      <c r="D138" s="6">
-        <v>2</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7">
-        <f>ROWS(A134:I138)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7">
-        <f>ROWS(A6:I9) + ROWS(A13:I62) + ROWS(A66:I70) + ROWS(A74:I106) + ROWS(A110:I118) + ROWS(A122:I122) + ROWS(A126:I130) + ROWS(A134:I138)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7">
-        <f>ROWS(A6:I9) + ROWS(A13:I62) + ROWS(A66:I70) + ROWS(A74:I106) + ROWS(A110:I118) + ROWS(A122:I122) + ROWS(A126:I130) + ROWS(A134:I138)</f>
-        <v>112</v>
+      <c r="D170" s="6">
+        <v>2</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="6">
+        <v>1</v>
+      </c>
+      <c r="D171" s="6">
+        <v>2</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" s="6">
+        <v>1</v>
+      </c>
+      <c r="D172" s="6">
+        <v>2</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="6">
+        <v>1</v>
+      </c>
+      <c r="D173" s="6">
+        <v>2</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="6">
+        <v>1</v>
+      </c>
+      <c r="D174" s="6">
+        <v>2</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7">
+        <f>ROWS(A169:I174)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7">
+        <f>ROWS(A6:I12) + ROWS(A16:I82) + ROWS(A86:I91) + ROWS(A95:I135) + ROWS(A139:I149) + ROWS(A153:I154) + ROWS(A158:I165) + ROWS(A169:I174)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7">
+        <f>ROWS(A6:I12) + ROWS(A16:I82) + ROWS(A86:I91) + ROWS(A95:I135) + ROWS(A139:I149) + ROWS(A153:I154) + ROWS(A158:I165) + ROWS(A169:I174)</f>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4648,23 +5800,23 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A139:H139"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A141:H141"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A136:H136"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A150:H150"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A155:H155"/>
+    <mergeCell ref="A156:I156"/>
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A167:I167"/>
+    <mergeCell ref="A175:H175"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A177:H177"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/crudos/insc_carreras_2026.xlsx
+++ b/data/crudos/insc_carreras_2026.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>Año Académico</t>
   </si>
@@ -83,12 +83,45 @@
     <t>Presencial</t>
   </si>
   <si>
+    <t>DE ANTONI, MARIA MARGARITA</t>
+  </si>
+  <si>
+    <t>DNI 44361477</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
     <t>FERNANDEZ, ROCIO ABIGAIL</t>
   </si>
   <si>
     <t>DNI 48807202</t>
   </si>
   <si>
+    <t>FORLIN, JULIA</t>
+  </si>
+  <si>
+    <t>DNI 48116237</t>
+  </si>
+  <si>
+    <t>FRIDEL, MATIAS VALENTIN</t>
+  </si>
+  <si>
+    <t>DNI 45689399</t>
+  </si>
+  <si>
+    <t>GUERREROS, LUDMILA JAZMIN</t>
+  </si>
+  <si>
+    <t>DNI 46291837</t>
+  </si>
+  <si>
+    <t>MARCOS, AGUSTINA</t>
+  </si>
+  <si>
+    <t>DNI 43672420</t>
+  </si>
+  <si>
     <t>NIEVA, MARCOS</t>
   </si>
   <si>
@@ -101,12 +134,36 @@
     <t>DNI 42689759</t>
   </si>
   <si>
+    <t>OYOLA, JULIETA</t>
+  </si>
+  <si>
+    <t>DNI 45919406</t>
+  </si>
+  <si>
+    <t>PERAL, ABIGAIL</t>
+  </si>
+  <si>
+    <t>DNI 37278883</t>
+  </si>
+  <si>
     <t>PINEA, VALENTINA</t>
   </si>
   <si>
     <t>DNI 48639486</t>
   </si>
   <si>
+    <t>RAMIREZ, VICTORIA MAITEN</t>
+  </si>
+  <si>
+    <t>DNI 48027796</t>
+  </si>
+  <si>
+    <t>RAMOS, MARTINA</t>
+  </si>
+  <si>
+    <t>DNI 47436049</t>
+  </si>
+  <si>
     <t>Retamozo, Nadia</t>
   </si>
   <si>
@@ -125,13 +182,49 @@
     <t>Propuesta (CI-EEYN-P) CPU-EEYN</t>
   </si>
   <si>
+    <t>ABELLI, SOFIA</t>
+  </si>
+  <si>
+    <t>DNI 44482133</t>
+  </si>
+  <si>
+    <t>Aceptado</t>
+  </si>
+  <si>
+    <t>ACUÑA IBARRA, NATALIA</t>
+  </si>
+  <si>
+    <t>DNI 46821030</t>
+  </si>
+  <si>
+    <t>Aguilera, Nahuel</t>
+  </si>
+  <si>
+    <t>DNI 41069686</t>
+  </si>
+  <si>
     <t>ALLENDE, FLORENCIA MAGALI</t>
   </si>
   <si>
     <t>DNI 45354384</t>
   </si>
   <si>
-    <t>Aceptado</t>
+    <t>ALVAREZ FELIX, BENJAMIN MARVOS EZEQUIEL</t>
+  </si>
+  <si>
+    <t>DNI 45462680</t>
+  </si>
+  <si>
+    <t>Arleo, Lautaro</t>
+  </si>
+  <si>
+    <t>DNI 47293837</t>
+  </si>
+  <si>
+    <t>ARROYO, ANA SOFIA</t>
+  </si>
+  <si>
+    <t>DNI 37098587</t>
   </si>
   <si>
     <t>BARRERA TITO, PAUL WILLIAM</t>
@@ -140,6 +233,18 @@
     <t>DNI 46695130</t>
   </si>
   <si>
+    <t>BARRIENTOS PALACIOS, THIAGO RODRIGO</t>
+  </si>
+  <si>
+    <t>DNI 46992728</t>
+  </si>
+  <si>
+    <t>BASILE, MARTIN</t>
+  </si>
+  <si>
+    <t>DNI 46753073</t>
+  </si>
+  <si>
     <t>BASTAZO, DAIANA AYELEN</t>
   </si>
   <si>
@@ -188,6 +293,36 @@
     <t>DNI 48115749</t>
   </si>
   <si>
+    <t>CILLO PÉREZ, CELESTE LUCIA</t>
+  </si>
+  <si>
+    <t>DNI 48639559</t>
+  </si>
+  <si>
+    <t>COLAN, LUCAS ROMÁN</t>
+  </si>
+  <si>
+    <t>DNI 47944806</t>
+  </si>
+  <si>
+    <t>Colman, Ruth Magali</t>
+  </si>
+  <si>
+    <t>DNI 95685281</t>
+  </si>
+  <si>
+    <t>CORIA LEGUIZAMON, NICOLÁS GABRIEL</t>
+  </si>
+  <si>
+    <t>DNI 47649610</t>
+  </si>
+  <si>
+    <t>DELVECHIO, SANTINO ALBERTO</t>
+  </si>
+  <si>
+    <t>DNI 47455120</t>
+  </si>
+  <si>
     <t>DÍAZ, MELANIE MILAGROS</t>
   </si>
   <si>
@@ -212,12 +347,24 @@
     <t>DNI 46027745</t>
   </si>
   <si>
+    <t>FALCIGNO, SANTINO MATIAS</t>
+  </si>
+  <si>
+    <t>DNI 48027063</t>
+  </si>
+  <si>
     <t>FERNANDEZ, CANDELA CELESTE</t>
   </si>
   <si>
     <t>DNI 44626514</t>
   </si>
   <si>
+    <t>FERNANDEZ, EMIR ISAIAS SAMUEL</t>
+  </si>
+  <si>
+    <t>DNI 45784369</t>
+  </si>
+  <si>
     <t>FERNANDEZ SALCH, ROMAN</t>
   </si>
   <si>
@@ -230,6 +377,24 @@
     <t>DNI 47229427</t>
   </si>
   <si>
+    <t>FERRO, LUCIANA CATALINA</t>
+  </si>
+  <si>
+    <t>DNI 45325742</t>
+  </si>
+  <si>
+    <t>FLORENTIN, LEANDRO</t>
+  </si>
+  <si>
+    <t>DNI 47633992</t>
+  </si>
+  <si>
+    <t>GALUE MENDOZA, RENNY JASSON</t>
+  </si>
+  <si>
+    <t>DNI 19103844</t>
+  </si>
+  <si>
     <t>GARAY, MIA ARIADNA</t>
   </si>
   <si>
@@ -272,6 +437,12 @@
     <t>DNI 46431330</t>
   </si>
   <si>
+    <t>GOMEZ, LUCIANA SOFIA</t>
+  </si>
+  <si>
+    <t>DNI 40746690</t>
+  </si>
+  <si>
     <t>GONZALEZ, JUAN CRUZ</t>
   </si>
   <si>
@@ -290,6 +461,36 @@
     <t>DNI 48796378</t>
   </si>
   <si>
+    <t>HIPPACHER, TOBIAS</t>
+  </si>
+  <si>
+    <t>DNI 48576820</t>
+  </si>
+  <si>
+    <t>HUANCA SUBIA, MANUELA FERNANDA</t>
+  </si>
+  <si>
+    <t>DNI 46362567</t>
+  </si>
+  <si>
+    <t>KRONEMBERGER, JADE LIGHUEN</t>
+  </si>
+  <si>
+    <t>DNI 47861000</t>
+  </si>
+  <si>
+    <t>LAMAS, MAILEN</t>
+  </si>
+  <si>
+    <t>DNI 48416231</t>
+  </si>
+  <si>
+    <t>LEIS, SOFÍA</t>
+  </si>
+  <si>
+    <t>DNI 42375290</t>
+  </si>
+  <si>
     <t>LEMOS GONZÁLEZ, BRENDA CRISTAL</t>
   </si>
   <si>
@@ -302,6 +503,12 @@
     <t>DNI 45076584</t>
   </si>
   <si>
+    <t>LOPEZ, ARIEL</t>
+  </si>
+  <si>
+    <t>DNI 47098742</t>
+  </si>
+  <si>
     <t>LOPEZ, CANDELA</t>
   </si>
   <si>
@@ -314,12 +521,24 @@
     <t>DNI 47398787</t>
   </si>
   <si>
+    <t>LORES, ROMINA SAMANTA</t>
+  </si>
+  <si>
+    <t>DNI 29013840</t>
+  </si>
+  <si>
     <t>MAITA, FACUNDO</t>
   </si>
   <si>
     <t>DNI 47066576</t>
   </si>
   <si>
+    <t>MARLIA, PRISCILA EVELIN MELANI</t>
+  </si>
+  <si>
+    <t>DNI 45871468</t>
+  </si>
+  <si>
     <t>MARTINEZ MOREL, LUZ MARINA</t>
   </si>
   <si>
@@ -332,6 +551,12 @@
     <t>DNI 47435130</t>
   </si>
   <si>
+    <t>MEDINA, CANDELA</t>
+  </si>
+  <si>
+    <t>DNI 40866632</t>
+  </si>
+  <si>
     <t>MONSALVO, OCTAVIO JOSÉ</t>
   </si>
   <si>
@@ -356,12 +581,24 @@
     <t>DNI 48678477</t>
   </si>
   <si>
+    <t>PALLEROS IBARRA, LUANA</t>
+  </si>
+  <si>
+    <t>DNI 48855039</t>
+  </si>
+  <si>
     <t>Parapugna, Agustina Magali</t>
   </si>
   <si>
     <t>DNI 44561078</t>
   </si>
   <si>
+    <t>PARAPUGNA, SANTIAGO PABLO</t>
+  </si>
+  <si>
+    <t>DNI 47158857</t>
+  </si>
+  <si>
     <t>PAREDES, GUSTAVO</t>
   </si>
   <si>
@@ -416,12 +653,36 @@
     <t>DNI 48240193</t>
   </si>
   <si>
+    <t>RIOS, ANABELLA DENISSE</t>
+  </si>
+  <si>
+    <t>DNI 47434948</t>
+  </si>
+  <si>
+    <t>RIVERSO POLO, IGNACIO</t>
+  </si>
+  <si>
+    <t>DNI 46026594</t>
+  </si>
+  <si>
     <t>RODRIGUEZ, MAXIMO AGUSTIN</t>
   </si>
   <si>
     <t>DNI 47805235</t>
   </si>
   <si>
+    <t>RODRIGUEZ, MILAGROS</t>
+  </si>
+  <si>
+    <t>DNI 46641851</t>
+  </si>
+  <si>
+    <t>ROJO, TOBIAS</t>
+  </si>
+  <si>
+    <t>DNI 44726852</t>
+  </si>
+  <si>
     <t>ROMERO, NAHUEL EZEQUIEL</t>
   </si>
   <si>
@@ -434,6 +695,12 @@
     <t>DNI 38681130</t>
   </si>
   <si>
+    <t>RUGGERI, SANTINO</t>
+  </si>
+  <si>
+    <t>DNI 47871066</t>
+  </si>
+  <si>
     <t>SANTANGELO, LOLA</t>
   </si>
   <si>
@@ -452,24 +719,54 @@
     <t>DNI 48387915</t>
   </si>
   <si>
+    <t>STRAZZULLO, AGOSTINA MORENA</t>
+  </si>
+  <si>
+    <t>DNI 48496781</t>
+  </si>
+  <si>
+    <t>TEJADA, ABRIL MARIANEL</t>
+  </si>
+  <si>
+    <t>DNI 44666438</t>
+  </si>
+  <si>
     <t>TOLABA, CINTIA AYELEN</t>
   </si>
   <si>
     <t>DNI 37215030</t>
   </si>
   <si>
+    <t>TOLEDO, MALENA VALENTINA</t>
+  </si>
+  <si>
+    <t>DNI 48757897</t>
+  </si>
+  <si>
     <t>TORRES, SANTIAGO EZEQUIEL</t>
   </si>
   <si>
     <t>DNI 48245680</t>
   </si>
   <si>
+    <t>TULA, VALENTINA SOFÍA</t>
+  </si>
+  <si>
+    <t>DNI 46878177</t>
+  </si>
+  <si>
     <t>VALDERRAMA, CATARINA</t>
   </si>
   <si>
     <t>DNI 46737943</t>
   </si>
   <si>
+    <t>VAZQUEZ, PRISCILLA VANINA</t>
+  </si>
+  <si>
+    <t>DNI 47203045</t>
+  </si>
+  <si>
     <t>VILLAFAÑEZ, MARÍA JULIETA</t>
   </si>
   <si>
@@ -482,6 +779,18 @@
     <t>DNI 41782391</t>
   </si>
   <si>
+    <t>ZALAZAR, CAMILA ANTONELLA</t>
+  </si>
+  <si>
+    <t>DNI 45173561</t>
+  </si>
+  <si>
+    <t>ZARACHO VELAZQUE, EVELYN NAHIARA</t>
+  </si>
+  <si>
+    <t>DNI 47754111</t>
+  </si>
+  <si>
     <t>Zunino, Martina Juliana</t>
   </si>
   <si>
@@ -497,12 +806,24 @@
     <t>DNI 46292370</t>
   </si>
   <si>
+    <t>ALVAREZ, FELIX</t>
+  </si>
+  <si>
+    <t>DNI 47559840</t>
+  </si>
+  <si>
     <t>CAMINO, FACUNDO</t>
   </si>
   <si>
     <t>DNI 38458463</t>
   </si>
   <si>
+    <t>FERRERO, MAIRA LUCIANA</t>
+  </si>
+  <si>
+    <t>DNI 43169883</t>
+  </si>
+  <si>
     <t>GUEVARA, MARTIN</t>
   </si>
   <si>
@@ -515,6 +836,18 @@
     <t>DNI 38686229</t>
   </si>
   <si>
+    <t>LEMOS GONZALEZ, ELIAS OSCAR</t>
+  </si>
+  <si>
+    <t>DNI 41716055</t>
+  </si>
+  <si>
+    <t>POLITI, LUCA ADRIAN</t>
+  </si>
+  <si>
+    <t>DNI 43587292</t>
+  </si>
+  <si>
     <t>RUGGIERO, ALEJANDRO</t>
   </si>
   <si>
@@ -536,6 +869,12 @@
     <t>DNI 45372364</t>
   </si>
   <si>
+    <t>CUENCA, JULIETA SOLANGE</t>
+  </si>
+  <si>
+    <t>DNI 30314994</t>
+  </si>
+  <si>
     <t>Propuesta (LI-LECO-P) LE</t>
   </si>
   <si>
@@ -543,6 +882,12 @@
   </si>
   <si>
     <t>DNI 47377941</t>
+  </si>
+  <si>
+    <t>MALDONADO, GRISELDA SOLEDAD</t>
+  </si>
+  <si>
+    <t>DNI 25762504</t>
   </si>
   <si>
     <t>Propuesta (LI-LEDC-P) LIC. ECO. DEL CONOCIMIENTO</t>
@@ -952,15 +1297,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I177" sqref="I177"/>
+      <selection activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="47" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9" bestFit="true" customWidth="true" style="0"/>
@@ -1093,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -1110,10 +1455,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1139,10 +1484,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
@@ -1151,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
@@ -1168,10 +1513,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1197,10 +1542,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
@@ -1226,10 +1571,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>16</v>
@@ -1254,84 +1599,113 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <f>ROWS(A6:I12)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customHeight="1" ht="20">
-      <c r="A14" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>13</v>
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2013</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -1342,16 +1716,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2013</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
@@ -1360,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>20</v>
@@ -1371,25 +1745,25 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2013</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>20</v>
@@ -1400,16 +1774,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2013</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
@@ -1418,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>20</v>
@@ -1429,16 +1803,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2013</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -1447,7 +1821,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>20</v>
@@ -1458,16 +1832,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2013</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -1476,7 +1850,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>20</v>
@@ -1486,98 +1860,69 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2013</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2013</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <f>ROWS(A6:I21)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" customHeight="1" ht="20">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2013</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>21</v>
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6">
         <v>2013</v>
@@ -1592,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>20</v>
@@ -1603,10 +1948,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" s="6">
         <v>2013</v>
@@ -1615,13 +1960,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>20</v>
@@ -1632,10 +1977,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" s="6">
         <v>2013</v>
@@ -1650,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>20</v>
@@ -1661,10 +2006,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C28" s="6">
         <v>2013</v>
@@ -1679,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>20</v>
@@ -1690,10 +2035,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C29" s="6">
         <v>2013</v>
@@ -1702,13 +2047,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>20</v>
@@ -1719,10 +2064,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" s="6">
         <v>2013</v>
@@ -1731,13 +2076,13 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
@@ -1748,10 +2093,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C31" s="6">
         <v>2013</v>
@@ -1766,7 +2111,7 @@
         <v>18</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>20</v>
@@ -1777,10 +2122,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C32" s="6">
         <v>2013</v>
@@ -1795,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>20</v>
@@ -1806,10 +2151,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="6">
         <v>2013</v>
@@ -1824,7 +2169,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>20</v>
@@ -1835,10 +2180,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6">
         <v>2013</v>
@@ -1853,7 +2198,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>20</v>
@@ -1864,10 +2209,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="6">
         <v>2013</v>
@@ -1876,13 +2221,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>20</v>
@@ -1893,10 +2238,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="6">
         <v>2013</v>
@@ -1911,7 +2256,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>20</v>
@@ -1922,10 +2267,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="6">
         <v>2013</v>
@@ -1940,7 +2285,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>20</v>
@@ -1951,10 +2296,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="6">
         <v>2013</v>
@@ -1969,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>20</v>
@@ -1980,10 +2325,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="6">
         <v>2013</v>
@@ -1998,7 +2343,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>20</v>
@@ -2009,10 +2354,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="6">
         <v>2013</v>
@@ -2027,7 +2372,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>20</v>
@@ -2038,10 +2383,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6">
         <v>2013</v>
@@ -2056,7 +2401,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>20</v>
@@ -2067,10 +2412,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="6">
         <v>2013</v>
@@ -2085,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>20</v>
@@ -2096,10 +2441,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6">
         <v>2013</v>
@@ -2114,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>20</v>
@@ -2125,10 +2470,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" s="6">
         <v>2013</v>
@@ -2143,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>20</v>
@@ -2154,10 +2499,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="6">
         <v>2013</v>
@@ -2166,13 +2511,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>20</v>
@@ -2183,10 +2528,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46" s="6">
         <v>2013</v>
@@ -2195,13 +2540,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>20</v>
@@ -2212,10 +2557,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="6">
         <v>2013</v>
@@ -2224,13 +2569,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>20</v>
@@ -2241,10 +2586,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6">
         <v>2013</v>
@@ -2253,13 +2598,13 @@
         <v>2</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>20</v>
@@ -2270,10 +2615,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="6">
         <v>2013</v>
@@ -2282,13 +2627,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>20</v>
@@ -2299,10 +2644,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="6">
         <v>2013</v>
@@ -2317,7 +2662,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>20</v>
@@ -2328,10 +2673,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="6">
         <v>2013</v>
@@ -2346,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>20</v>
@@ -2357,10 +2702,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="6">
         <v>2013</v>
@@ -2375,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>20</v>
@@ -2386,10 +2731,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="6">
         <v>2013</v>
@@ -2404,7 +2749,7 @@
         <v>18</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>20</v>
@@ -2415,10 +2760,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="6">
         <v>2013</v>
@@ -2433,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>20</v>
@@ -2444,10 +2789,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C55" s="6">
         <v>2013</v>
@@ -2462,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>20</v>
@@ -2473,10 +2818,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C56" s="6">
         <v>2013</v>
@@ -2485,13 +2830,13 @@
         <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>20</v>
@@ -2502,11 +2847,11 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C57" s="6">
         <v>2013</v>
       </c>
@@ -2520,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>20</v>
@@ -2531,10 +2876,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C58" s="6">
         <v>2013</v>
@@ -2549,7 +2894,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>20</v>
@@ -2560,10 +2905,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C59" s="6">
         <v>2013</v>
@@ -2578,7 +2923,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>20</v>
@@ -2589,10 +2934,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C60" s="6">
         <v>2013</v>
@@ -2607,7 +2952,7 @@
         <v>18</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>20</v>
@@ -2618,10 +2963,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C61" s="6">
         <v>2013</v>
@@ -2630,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>20</v>
@@ -2647,10 +2992,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="C62" s="6">
         <v>2013</v>
@@ -2659,13 +3004,13 @@
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>20</v>
@@ -2676,10 +3021,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" s="6">
         <v>2013</v>
@@ -2694,7 +3039,7 @@
         <v>18</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>20</v>
@@ -2705,10 +3050,10 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C64" s="6">
         <v>2013</v>
@@ -2717,13 +3062,13 @@
         <v>2</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>20</v>
@@ -2734,10 +3079,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" s="6">
         <v>2013</v>
@@ -2752,7 +3097,7 @@
         <v>18</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>20</v>
@@ -2763,10 +3108,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" s="6">
         <v>2013</v>
@@ -2781,7 +3126,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>20</v>
@@ -2792,10 +3137,10 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C67" s="6">
         <v>2013</v>
@@ -2810,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>20</v>
@@ -2821,10 +3166,10 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C68" s="6">
         <v>2013</v>
@@ -2839,7 +3184,7 @@
         <v>18</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>20</v>
@@ -2850,10 +3195,10 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C69" s="6">
         <v>2013</v>
@@ -2868,7 +3213,7 @@
         <v>18</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>20</v>
@@ -2879,10 +3224,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C70" s="6">
         <v>2013</v>
@@ -2897,7 +3242,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>20</v>
@@ -2908,10 +3253,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C71" s="6">
         <v>2013</v>
@@ -2926,7 +3271,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>20</v>
@@ -2937,10 +3282,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C72" s="6">
         <v>2013</v>
@@ -2949,13 +3294,13 @@
         <v>2</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>20</v>
@@ -2966,10 +3311,10 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C73" s="6">
         <v>2013</v>
@@ -2984,7 +3329,7 @@
         <v>18</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>20</v>
@@ -2995,11 +3340,11 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C74" s="6">
         <v>2013</v>
       </c>
@@ -3013,7 +3358,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>20</v>
@@ -3024,10 +3369,10 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C75" s="6">
         <v>2013</v>
@@ -3042,7 +3387,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>20</v>
@@ -3053,10 +3398,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C76" s="6">
         <v>2013</v>
@@ -3071,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>20</v>
@@ -3082,10 +3427,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C77" s="6">
         <v>2013</v>
@@ -3094,13 +3439,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>20</v>
@@ -3111,10 +3456,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C78" s="6">
         <v>2013</v>
@@ -3123,13 +3468,13 @@
         <v>2</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>20</v>
@@ -3140,10 +3485,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C79" s="6">
         <v>2013</v>
@@ -3158,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>20</v>
@@ -3169,10 +3514,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C80" s="6">
         <v>2013</v>
@@ -3187,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>20</v>
@@ -3198,10 +3543,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C81" s="6">
         <v>2013</v>
@@ -3216,7 +3561,7 @@
         <v>18</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>20</v>
@@ -3227,10 +3572,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C82" s="6">
         <v>2013</v>
@@ -3245,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>20</v>
@@ -3255,75 +3600,104 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7">
-        <f>ROWS(A16:I82)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" customHeight="1" ht="20">
-      <c r="A84" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="A83" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D83" s="6">
+        <v>2</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D84" s="6">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>13</v>
+      <c r="A85" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D85" s="6">
+        <v>2</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C86" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D86" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>17</v>
@@ -3332,7 +3706,7 @@
         <v>18</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>20</v>
@@ -3343,16 +3717,16 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C87" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D87" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>17</v>
@@ -3361,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>20</v>
@@ -3372,16 +3746,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C88" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D88" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>17</v>
@@ -3390,7 +3764,7 @@
         <v>18</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>20</v>
@@ -3401,16 +3775,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="6" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="C89" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
@@ -3419,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>20</v>
@@ -3430,25 +3804,25 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C90" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D90" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>20</v>
@@ -3459,16 +3833,16 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C91" s="6">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>17</v>
@@ -3477,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>20</v>
@@ -3487,72 +3861,101 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7">
-        <f>ROWS(A86:I91)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" customHeight="1" ht="20">
-      <c r="A93" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="A92" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D92" s="6">
+        <v>2</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>13</v>
+      <c r="A94" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D94" s="6">
+        <v>2</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="6" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C95" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D95" s="6">
         <v>2</v>
@@ -3564,22 +3967,24 @@
         <v>18</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I95" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="6" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="C96" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D96" s="6">
         <v>2</v>
@@ -3591,7 +3996,7 @@
         <v>18</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>20</v>
@@ -3602,13 +4007,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C97" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D97" s="6">
         <v>2</v>
@@ -3620,7 +4025,7 @@
         <v>18</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>20</v>
@@ -3631,13 +4036,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="6" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="C98" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D98" s="6">
         <v>2</v>
@@ -3649,7 +4054,7 @@
         <v>18</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>20</v>
@@ -3660,13 +4065,13 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C99" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D99" s="6">
         <v>2</v>
@@ -3678,7 +4083,7 @@
         <v>18</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>20</v>
@@ -3689,13 +4094,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C100" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D100" s="6">
         <v>2</v>
@@ -3707,7 +4112,7 @@
         <v>18</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>20</v>
@@ -3718,25 +4123,25 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="6" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="C101" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D101" s="6">
         <v>2</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>20</v>
@@ -3747,13 +4152,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="6" t="s">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="C102" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D102" s="6">
         <v>2</v>
@@ -3765,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>20</v>
@@ -3776,13 +4181,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="6" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="C103" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D103" s="6">
         <v>2</v>
@@ -3794,7 +4199,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>20</v>
@@ -3805,13 +4210,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="6" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="C104" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D104" s="6">
         <v>2</v>
@@ -3823,7 +4228,7 @@
         <v>18</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>20</v>
@@ -3834,13 +4239,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="6" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="C105" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D105" s="6">
         <v>2</v>
@@ -3852,7 +4257,7 @@
         <v>18</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>20</v>
@@ -3863,25 +4268,25 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="6" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C106" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D106" s="6">
         <v>2</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>20</v>
@@ -3892,13 +4297,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="6" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C107" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D107" s="6">
         <v>2</v>
@@ -3910,7 +4315,7 @@
         <v>18</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>20</v>
@@ -3921,13 +4326,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="6" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="C108" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D108" s="6">
         <v>2</v>
@@ -3939,7 +4344,7 @@
         <v>18</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>20</v>
@@ -3950,13 +4355,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="6" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C109" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D109" s="6">
         <v>2</v>
@@ -3968,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>20</v>
@@ -3979,13 +4384,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="6" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="C110" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D110" s="6">
         <v>2</v>
@@ -3997,7 +4402,7 @@
         <v>18</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>20</v>
@@ -4008,13 +4413,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="6" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="C111" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D111" s="6">
         <v>2</v>
@@ -4026,7 +4431,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>20</v>
@@ -4037,13 +4442,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="6" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="C112" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D112" s="6">
         <v>2</v>
@@ -4055,7 +4460,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>20</v>
@@ -4066,13 +4471,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="C113" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D113" s="6">
         <v>2</v>
@@ -4084,7 +4489,7 @@
         <v>18</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>20</v>
@@ -4095,13 +4500,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="6" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C114" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D114" s="6">
         <v>2</v>
@@ -4113,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>20</v>
@@ -4124,25 +4529,25 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="6" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D115" s="6">
         <v>2</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>20</v>
@@ -4153,13 +4558,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="6" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C116" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D116" s="6">
         <v>2</v>
@@ -4171,7 +4576,7 @@
         <v>18</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>20</v>
@@ -4182,13 +4587,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="6" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C117" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D117" s="6">
         <v>2</v>
@@ -4200,7 +4605,7 @@
         <v>18</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>20</v>
@@ -4211,13 +4616,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="6" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="C118" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D118" s="6">
         <v>2</v>
@@ -4229,7 +4634,7 @@
         <v>18</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>20</v>
@@ -4240,13 +4645,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="6" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="C119" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D119" s="6">
         <v>2</v>
@@ -4258,7 +4663,7 @@
         <v>18</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>20</v>
@@ -4269,13 +4674,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="6" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="C120" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D120" s="6">
         <v>2</v>
@@ -4287,7 +4692,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>20</v>
@@ -4298,13 +4703,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="6" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="C121" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D121" s="6">
         <v>2</v>
@@ -4316,7 +4721,7 @@
         <v>18</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>20</v>
@@ -4327,25 +4732,25 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="6" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="C122" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D122" s="6">
         <v>2</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>20</v>
@@ -4356,13 +4761,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="6" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="C123" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D123" s="6">
         <v>2</v>
@@ -4374,7 +4779,7 @@
         <v>18</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>20</v>
@@ -4385,13 +4790,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="6" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="C124" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D124" s="6">
         <v>2</v>
@@ -4403,7 +4808,7 @@
         <v>18</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>20</v>
@@ -4414,25 +4819,25 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="6" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C125" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D125" s="6">
         <v>2</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>20</v>
@@ -4443,13 +4848,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="6" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="C126" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D126" s="6">
         <v>2</v>
@@ -4461,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>20</v>
@@ -4472,13 +4877,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="6" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C127" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D127" s="6">
         <v>2</v>
@@ -4490,7 +4895,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>20</v>
@@ -4501,13 +4906,13 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="6" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="C128" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D128" s="6">
         <v>2</v>
@@ -4519,7 +4924,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>20</v>
@@ -4530,13 +4935,13 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="6" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="C129" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D129" s="6">
         <v>2</v>
@@ -4548,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>20</v>
@@ -4559,13 +4964,13 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="6" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="C130" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D130" s="6">
         <v>2</v>
@@ -4577,7 +4982,7 @@
         <v>18</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>20</v>
@@ -4588,13 +4993,13 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="6" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="C131" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D131" s="6">
         <v>2</v>
@@ -4606,7 +5011,7 @@
         <v>18</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>20</v>
@@ -4617,13 +5022,13 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="6" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="C132" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D132" s="6">
         <v>2</v>
@@ -4635,7 +5040,7 @@
         <v>18</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>20</v>
@@ -4646,25 +5051,25 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="6" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="C133" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D133" s="6">
         <v>2</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>20</v>
@@ -4675,13 +5080,13 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="6" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="C134" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D134" s="6">
         <v>2</v>
@@ -4693,7 +5098,7 @@
         <v>18</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>20</v>
@@ -4704,25 +5109,25 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="6" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="C135" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D135" s="6">
         <v>2</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>20</v>
@@ -4732,72 +5137,101 @@
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7">
-        <f>ROWS(A95:I135)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" customHeight="1" ht="20">
-      <c r="A137" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
+      <c r="A136" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C136" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D136" s="6">
+        <v>2</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D137" s="6">
+        <v>2</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>13</v>
+      <c r="A138" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C138" s="6">
+        <v>2013</v>
+      </c>
+      <c r="D138" s="6">
+        <v>2</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="6" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="C139" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D139" s="6">
         <v>2</v>
@@ -4809,7 +5243,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>20</v>
@@ -4820,25 +5254,25 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="6" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="C140" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D140" s="6">
         <v>2</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>20</v>
@@ -4849,25 +5283,25 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="6" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="C141" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D141" s="6">
         <v>2</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>20</v>
@@ -4878,13 +5312,13 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="6" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="C142" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D142" s="6">
         <v>2</v>
@@ -4896,7 +5330,7 @@
         <v>18</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>20</v>
@@ -4906,104 +5340,75 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C143" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C144" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D144" s="6">
-        <v>2</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A143" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7">
+        <f>ROWS(A25:I142)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" customHeight="1" ht="20">
+      <c r="A144" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C145" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D145" s="6">
-        <v>2</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>21</v>
+      <c r="A145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="6" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="C146" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D146" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>17</v>
@@ -5012,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>20</v>
@@ -5023,16 +5428,16 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="6" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C147" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D147" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>17</v>
@@ -5041,7 +5446,7 @@
         <v>18</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>20</v>
@@ -5052,16 +5457,16 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="6" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="C148" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D148" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>17</v>
@@ -5070,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>20</v>
@@ -5081,16 +5486,16 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="6" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="C149" s="6">
-        <v>2015</v>
+        <v>1</v>
       </c>
       <c r="D149" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>17</v>
@@ -5099,7 +5504,7 @@
         <v>18</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>20</v>
@@ -5109,72 +5514,101 @@
       </c>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7">
-        <f>ROWS(A139:I149)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" customHeight="1" ht="20">
-      <c r="A151" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
+      <c r="A150" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>13</v>
+      <c r="A152" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1</v>
+      </c>
+      <c r="D152" s="6">
+        <v>1</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="6" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>177</v>
+        <v>276</v>
+      </c>
+      <c r="C153" s="6">
+        <v>1</v>
       </c>
       <c r="D153" s="6">
         <v>1</v>
@@ -5186,7 +5620,7 @@
         <v>18</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>20</v>
@@ -5197,13 +5631,13 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="6" t="s">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>177</v>
+        <v>278</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1</v>
       </c>
       <c r="D154" s="6">
         <v>1</v>
@@ -5215,7 +5649,7 @@
         <v>18</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>20</v>
@@ -5225,104 +5659,104 @@
       </c>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7">
-        <f>ROWS(A153:I154)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" customHeight="1" ht="20">
-      <c r="A156" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="5" t="s">
+      <c r="A155" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7">
+        <f>ROWS(A146:I155)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" customHeight="1" ht="20">
+      <c r="A157" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B158" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F158" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="H158" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I157" s="5" t="s">
+      <c r="I158" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C158" s="6">
-        <v>2016</v>
-      </c>
-      <c r="D158" s="6">
-        <v>1</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C159" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D159" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>17</v>
@@ -5342,16 +5776,16 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="6" t="s">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="C160" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D160" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>17</v>
@@ -5362,28 +5796,26 @@
       <c r="G160" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H160" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="H160" s="6"/>
       <c r="I160" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C161" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D161" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>18</v>
@@ -5400,16 +5832,16 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="6" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C162" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D162" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>17</v>
@@ -5429,19 +5861,19 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="6" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="C163" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D163" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
@@ -5458,19 +5890,19 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="6" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="C164" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D164" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>18</v>
@@ -5487,19 +5919,19 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="6" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C165" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D165" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>18</v>
@@ -5515,72 +5947,101 @@
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7">
-        <f>ROWS(A158:I165)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" customHeight="1" ht="20">
-      <c r="A167" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
+      <c r="A166" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D167" s="6">
+        <v>2</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>13</v>
+      <c r="A168" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D168" s="6">
+        <v>2</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="6" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C169" s="6">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="D169" s="6">
         <v>2</v>
@@ -5603,13 +6064,13 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="6" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C170" s="6">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="D170" s="6">
         <v>2</v>
@@ -5632,13 +6093,13 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="6" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="C171" s="6">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="D171" s="6">
         <v>2</v>
@@ -5661,13 +6122,13 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="6" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C172" s="6">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="D172" s="6">
         <v>2</v>
@@ -5690,19 +6151,19 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="6" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C173" s="6">
-        <v>1</v>
+        <v>2015</v>
       </c>
       <c r="D173" s="6">
         <v>2</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>18</v>
@@ -5719,79 +6180,3238 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C174" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D174" s="6">
+        <v>2</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D175" s="6">
+        <v>2</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C176" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D176" s="6">
+        <v>2</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C177" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D177" s="6">
+        <v>2</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C178" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D178" s="6">
+        <v>2</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D179" s="6">
+        <v>2</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C180" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D180" s="6">
+        <v>2</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D181" s="6">
+        <v>2</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D182" s="6">
+        <v>2</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D183" s="6">
+        <v>2</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D184" s="6">
+        <v>2</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D185" s="6">
+        <v>2</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D186" s="6">
+        <v>2</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C187" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D187" s="6">
+        <v>2</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D188" s="6">
+        <v>2</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C189" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D189" s="6">
+        <v>2</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D190" s="6">
+        <v>2</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C191" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D191" s="6">
+        <v>2</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D192" s="6">
+        <v>2</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C193" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D193" s="6">
+        <v>2</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C194" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D194" s="6">
+        <v>2</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C195" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D195" s="6">
+        <v>2</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H195" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C196" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D196" s="6">
+        <v>2</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C197" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D197" s="6">
+        <v>2</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D198" s="6">
+        <v>2</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C199" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D199" s="6">
+        <v>2</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C200" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D200" s="6">
+        <v>2</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C201" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D201" s="6">
+        <v>2</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D202" s="6">
+        <v>2</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C203" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D203" s="6">
+        <v>2</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C204" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D204" s="6">
+        <v>2</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C205" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D205" s="6">
+        <v>2</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C206" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D206" s="6">
+        <v>2</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D207" s="6">
+        <v>2</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D208" s="6">
+        <v>2</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C209" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D209" s="6">
+        <v>2</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D210" s="6">
+        <v>2</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C211" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D211" s="6">
+        <v>2</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C212" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D212" s="6">
+        <v>2</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C213" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D213" s="6">
+        <v>2</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C214" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D214" s="6">
+        <v>2</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C215" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D215" s="6">
+        <v>2</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C216" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D216" s="6">
+        <v>2</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C217" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D217" s="6">
+        <v>2</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C218" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D218" s="6">
+        <v>2</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C219" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D219" s="6">
+        <v>2</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C220" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D220" s="6">
+        <v>2</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C221" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D221" s="6">
+        <v>2</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C222" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D222" s="6">
+        <v>2</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C223" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D223" s="6">
+        <v>2</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B224" s="7"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="7">
+        <f>ROWS(A159:I223)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" customHeight="1" ht="20">
+      <c r="A225" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D227" s="6">
+        <v>2</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C228" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D228" s="6">
+        <v>2</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C229" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D229" s="6">
+        <v>2</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C230" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D230" s="6">
+        <v>2</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C231" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D231" s="6">
+        <v>2</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C232" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D232" s="6">
+        <v>2</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H232" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C233" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D233" s="6">
+        <v>2</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C234" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D234" s="6">
+        <v>2</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I234" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C235" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D235" s="6">
+        <v>2</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C236" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D236" s="6">
+        <v>2</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C237" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D237" s="6">
+        <v>2</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I237" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C238" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H238" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C239" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D239" s="6">
+        <v>2</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C240" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D240" s="6">
+        <v>2</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H240" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C241" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D241" s="6">
+        <v>2</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C242" s="6">
+        <v>2015</v>
+      </c>
+      <c r="D242" s="6">
+        <v>2</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I242" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7">
+        <f>ROWS(A227:I242)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" customHeight="1" ht="20">
+      <c r="A244" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D246" s="6">
+        <v>1</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D247" s="6">
+        <v>1</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H247" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I247" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D248" s="6">
+        <v>1</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I248" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D249" s="6">
+        <v>1</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B250" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C250" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D250" s="6">
         <v>1</v>
       </c>
-      <c r="D174" s="6">
-        <v>2</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7">
-        <f>ROWS(A169:I174)</f>
+      <c r="E250" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I250" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7">
+        <f>ROWS(A246:I250)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" customHeight="1" ht="20">
+      <c r="A252" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7">
-        <f>ROWS(A6:I12) + ROWS(A16:I82) + ROWS(A86:I91) + ROWS(A95:I135) + ROWS(A139:I149) + ROWS(A153:I154) + ROWS(A158:I165) + ROWS(A169:I174)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7">
-        <f>ROWS(A6:I12) + ROWS(A16:I82) + ROWS(A86:I91) + ROWS(A95:I135) + ROWS(A139:I149) + ROWS(A153:I154) + ROWS(A158:I165) + ROWS(A169:I174)</f>
-        <v>148</v>
+      <c r="C253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C254" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D254" s="6">
+        <v>1</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C255" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D255" s="6">
+        <v>1</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H255" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I255" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C256" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D256" s="6">
+        <v>1</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I256" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C257" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D257" s="6">
+        <v>1</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I257" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D258" s="6">
+        <v>1</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I258" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C259" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D259" s="6">
+        <v>1</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I259" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C260" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D260" s="6">
+        <v>1</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H260" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I260" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C261" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D261" s="6">
+        <v>1</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H261" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D262" s="6">
+        <v>1</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C263" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D263" s="6">
+        <v>1</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C264" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D264" s="6">
+        <v>1</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C265" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D265" s="6">
+        <v>1</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C266" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D266" s="6">
+        <v>1</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H266" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D267" s="6">
+        <v>1</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I267" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C268" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D268" s="6">
+        <v>1</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C269" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D269" s="6">
+        <v>1</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I269" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C270" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D270" s="6">
+        <v>1</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I270" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C271" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D271" s="6">
+        <v>1</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C272" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D272" s="6">
+        <v>1</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H272" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I272" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C273" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D273" s="6">
+        <v>1</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C274" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D274" s="6">
+        <v>1</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H274" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I274" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B275" s="7"/>
+      <c r="C275" s="7"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7"/>
+      <c r="I275" s="7">
+        <f>ROWS(A254:I274)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" customHeight="1" ht="20">
+      <c r="A276" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="4"/>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I277" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C278" s="6">
+        <v>1</v>
+      </c>
+      <c r="D278" s="6">
+        <v>2</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C279" s="6">
+        <v>1</v>
+      </c>
+      <c r="D279" s="6">
+        <v>2</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H279" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I279" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C280" s="6">
+        <v>1</v>
+      </c>
+      <c r="D280" s="6">
+        <v>2</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G280" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C281" s="6">
+        <v>1</v>
+      </c>
+      <c r="D281" s="6">
+        <v>2</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H281" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I281" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C282" s="6">
+        <v>1</v>
+      </c>
+      <c r="D282" s="6">
+        <v>2</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H282" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I282" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C283" s="6">
+        <v>1</v>
+      </c>
+      <c r="D283" s="6">
+        <v>2</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G283" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H283" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I283" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C284" s="6">
+        <v>1</v>
+      </c>
+      <c r="D284" s="6">
+        <v>2</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G284" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I284" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C285" s="6">
+        <v>1</v>
+      </c>
+      <c r="D285" s="6">
+        <v>2</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I285" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C286" s="6">
+        <v>1</v>
+      </c>
+      <c r="D286" s="6">
+        <v>2</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I286" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C287" s="6">
+        <v>1</v>
+      </c>
+      <c r="D287" s="6">
+        <v>2</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H287" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I287" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="7"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="7">
+        <f>ROWS(A278:I287)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+      <c r="I289" s="7">
+        <f>ROWS(A6:I21) + ROWS(A25:I142) + ROWS(A146:I155) + ROWS(A159:I223) + ROWS(A227:I242) + ROWS(A246:I250) + ROWS(A254:I274) + ROWS(A278:I287)</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+      <c r="I290" s="7">
+        <f>ROWS(A6:I21) + ROWS(A25:I142) + ROWS(A146:I155) + ROWS(A159:I223) + ROWS(A227:I242) + ROWS(A246:I250) + ROWS(A254:I274) + ROWS(A278:I287)</f>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5800,23 +9420,23 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A136:H136"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A150:H150"/>
-    <mergeCell ref="A151:I151"/>
-    <mergeCell ref="A155:H155"/>
-    <mergeCell ref="A156:I156"/>
-    <mergeCell ref="A166:H166"/>
-    <mergeCell ref="A167:I167"/>
-    <mergeCell ref="A175:H175"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A144:I144"/>
+    <mergeCell ref="A156:H156"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="A224:H224"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A243:H243"/>
+    <mergeCell ref="A244:I244"/>
+    <mergeCell ref="A251:H251"/>
+    <mergeCell ref="A252:I252"/>
+    <mergeCell ref="A275:H275"/>
+    <mergeCell ref="A276:I276"/>
+    <mergeCell ref="A288:H288"/>
+    <mergeCell ref="A289:H289"/>
+    <mergeCell ref="A290:H290"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
